--- a/data/trans_orig/IP19C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9E77431-C58F-4A18-9CCE-327D7448F16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DCF4D89-ABAC-4924-83BE-6E7FFAFB4130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{002518CA-82F9-456F-BB6B-7049C068E5C4}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{72DFBBE5-00F0-45F9-A9B0-A8EF952F1B68}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>64,76%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
     <t>28,62%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>90,54%</t>
   </si>
   <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
     <t>26,23%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>75,91%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
     <t>24,02%</t>
   </si>
   <si>
@@ -578,6 +578,60 @@
     <t>91,76%</t>
   </si>
   <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
     <t>26,36%</t>
   </si>
   <si>
@@ -626,60 +680,6 @@
     <t>76,98%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
     <t>24,08%</t>
   </si>
   <si>
@@ -791,6 +791,60 @@
     <t>91,09%</t>
   </si>
   <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
     <t>17,41%</t>
   </si>
   <si>
@@ -837,60 +891,6 @@
   </si>
   <si>
     <t>85,18%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
   </si>
   <si>
     <t>17,46%</t>
@@ -1336,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C771225-AC91-4F33-A059-EA5B90579857}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E7A085-7468-4C4E-B983-0EE4AAD08092}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1609,10 +1609,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>80464</v>
+        <v>21159</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1624,10 +1624,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>95366</v>
+        <v>20187</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1639,10 +1639,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="N7" s="7">
-        <v>175830</v>
+        <v>41345</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1660,10 +1660,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="D8" s="7">
-        <v>149916</v>
+        <v>90557</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1675,10 +1675,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="I8" s="7">
-        <v>127264</v>
+        <v>85883</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1690,10 +1690,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>414</v>
+        <v>267</v>
       </c>
       <c r="N8" s="7">
-        <v>277180</v>
+        <v>176441</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1711,10 +1711,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>230380</v>
+        <v>111716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1726,10 +1726,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>222630</v>
+        <v>106070</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1741,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>674</v>
+        <v>327</v>
       </c>
       <c r="N9" s="7">
-        <v>453010</v>
+        <v>217786</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1764,10 +1764,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D10" s="7">
-        <v>21159</v>
+        <v>80464</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1779,10 +1779,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="I10" s="7">
-        <v>20187</v>
+        <v>95366</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1794,10 +1794,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="N10" s="7">
-        <v>41345</v>
+        <v>175830</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1815,10 +1815,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>90557</v>
+        <v>149916</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1830,10 +1830,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="I11" s="7">
-        <v>85883</v>
+        <v>127264</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1845,10 +1845,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>267</v>
+        <v>414</v>
       </c>
       <c r="N11" s="7">
-        <v>176441</v>
+        <v>277180</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1866,10 +1866,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>111716</v>
+        <v>230380</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1881,10 +1881,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>106070</v>
+        <v>222630</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1896,10 +1896,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="N12" s="7">
-        <v>217786</v>
+        <v>453010</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2082,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9169DC6C-D7E8-4244-AE96-012D99D498DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F638DF-6783-44FA-8ECB-68641B66F7AB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,10 +2355,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>57818</v>
+        <v>28101</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2370,10 +2370,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>62102</v>
+        <v>33791</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2385,10 +2385,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="N7" s="7">
-        <v>119920</v>
+        <v>61893</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2406,10 +2406,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="D8" s="7">
-        <v>162578</v>
+        <v>105193</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2421,10 +2421,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="I8" s="7">
-        <v>151807</v>
+        <v>92629</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2436,10 +2436,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>454</v>
+        <v>271</v>
       </c>
       <c r="N8" s="7">
-        <v>314385</v>
+        <v>197821</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2457,10 +2457,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>325</v>
+        <v>182</v>
       </c>
       <c r="D9" s="7">
-        <v>220396</v>
+        <v>133294</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2472,10 +2472,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>306</v>
+        <v>177</v>
       </c>
       <c r="I9" s="7">
-        <v>213909</v>
+        <v>126420</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2487,10 +2487,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>631</v>
+        <v>359</v>
       </c>
       <c r="N9" s="7">
-        <v>434305</v>
+        <v>259714</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2510,10 +2510,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7">
-        <v>28101</v>
+        <v>57818</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2525,10 +2525,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>33791</v>
+        <v>62102</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2540,10 +2540,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="N10" s="7">
-        <v>61893</v>
+        <v>119920</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2561,10 +2561,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="D11" s="7">
-        <v>105193</v>
+        <v>162578</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2576,10 +2576,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="I11" s="7">
-        <v>92629</v>
+        <v>151807</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2591,10 +2591,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>271</v>
+        <v>454</v>
       </c>
       <c r="N11" s="7">
-        <v>197821</v>
+        <v>314385</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2612,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>182</v>
+        <v>325</v>
       </c>
       <c r="D12" s="7">
-        <v>133294</v>
+        <v>220396</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2627,10 +2627,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>177</v>
+        <v>306</v>
       </c>
       <c r="I12" s="7">
-        <v>126420</v>
+        <v>213909</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2642,10 +2642,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>359</v>
+        <v>631</v>
       </c>
       <c r="N12" s="7">
-        <v>259714</v>
+        <v>434305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2828,7 +2828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E45D80-BAB8-4A2A-AD73-CEF4B1982CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A2BC5-BCE2-4EA0-89A6-9DFB1C002DA2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,49 +3101,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>59607</v>
+        <v>27876</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>59324</v>
+        <v>35298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="N7" s="7">
-        <v>118932</v>
+        <v>63175</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3152,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="D8" s="7">
-        <v>166507</v>
+        <v>107036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>164540</v>
+        <v>95230</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>450</v>
+        <v>297</v>
       </c>
       <c r="N8" s="7">
-        <v>331046</v>
+        <v>202265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,10 +3203,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="D9" s="7">
-        <v>226114</v>
+        <v>134912</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3218,10 +3218,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>316</v>
+        <v>197</v>
       </c>
       <c r="I9" s="7">
-        <v>223864</v>
+        <v>130528</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3233,10 +3233,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>622</v>
+        <v>390</v>
       </c>
       <c r="N9" s="7">
-        <v>449978</v>
+        <v>265440</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3256,49 +3256,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7">
-        <v>27876</v>
+        <v>59607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7">
-        <v>35298</v>
+        <v>59324</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="N10" s="7">
-        <v>63175</v>
+        <v>118932</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,25 +3307,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="D11" s="7">
-        <v>107036</v>
+        <v>166507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>95230</v>
+        <v>164540</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>207</v>
@@ -3337,10 +3337,10 @@
         <v>209</v>
       </c>
       <c r="M11" s="7">
-        <v>297</v>
+        <v>450</v>
       </c>
       <c r="N11" s="7">
-        <v>202265</v>
+        <v>331046</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>210</v>
@@ -3358,10 +3358,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="D12" s="7">
-        <v>134912</v>
+        <v>226114</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3373,10 +3373,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="I12" s="7">
-        <v>130528</v>
+        <v>223864</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3388,10 +3388,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>390</v>
+        <v>622</v>
       </c>
       <c r="N12" s="7">
-        <v>265440</v>
+        <v>449978</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3574,7 +3574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5911219D-3B57-4881-A382-B5C30B247FD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0C06B9-3523-4911-9A56-427FC3A3565E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3847,10 +3847,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>55657</v>
+        <v>22081</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>250</v>
@@ -3862,34 +3862,34 @@
         <v>252</v>
       </c>
       <c r="H7" s="7">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>47882</v>
+        <v>21259</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>103539</v>
+        <v>43340</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,49 +3898,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="D8" s="7">
-        <v>263980</v>
+        <v>101639</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
-        <v>307</v>
+        <v>126</v>
       </c>
       <c r="I8" s="7">
-        <v>224459</v>
+        <v>90273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
-        <v>619</v>
+        <v>255</v>
       </c>
       <c r="N8" s="7">
-        <v>488439</v>
+        <v>191912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,10 +3949,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>319637</v>
+        <v>123720</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3964,10 +3964,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="I9" s="7">
-        <v>272341</v>
+        <v>111532</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3979,10 +3979,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>745</v>
+        <v>309</v>
       </c>
       <c r="N9" s="7">
-        <v>591978</v>
+        <v>235252</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4002,49 +4002,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7">
-        <v>22081</v>
+        <v>55657</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>21259</v>
+        <v>47882</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="N10" s="7">
-        <v>43340</v>
+        <v>103539</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,40 +4053,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>129</v>
+        <v>312</v>
       </c>
       <c r="D11" s="7">
-        <v>101639</v>
+        <v>263980</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="I11" s="7">
-        <v>90273</v>
+        <v>224459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
-        <v>255</v>
+        <v>619</v>
       </c>
       <c r="N11" s="7">
-        <v>191912</v>
+        <v>488439</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>281</v>
@@ -4104,10 +4104,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="D12" s="7">
-        <v>123720</v>
+        <v>319637</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4119,10 +4119,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="I12" s="7">
-        <v>111532</v>
+        <v>272341</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4134,10 +4134,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>309</v>
+        <v>745</v>
       </c>
       <c r="N12" s="7">
-        <v>235252</v>
+        <v>591978</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP19C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DCF4D89-ABAC-4924-83BE-6E7FFAFB4130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15864679-207D-4566-B4CB-CD5D09D96EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{72DFBBE5-00F0-45F9-A9B0-A8EF952F1B68}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{907FE6C9-57B5-4A4E-8903-86C8B37A80D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="343">
   <si>
     <t>Menores según su última visita al dentista fue por revisión o chequeo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,883 +68,1006 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2015 (Tasa respuesta: 49,15%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>34,93%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2015 (Tasa respuesta: 49,15%)</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>21,99%</t>
   </si>
   <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1078,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1051,39 +1174,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1135,7 +1258,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1246,13 +1369,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1261,6 +1377,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1325,19 +1448,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E7A085-7468-4C4E-B983-0EE4AAD08092}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F3EDB8-E3CD-4322-BA83-452E94CC2A52}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1457,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1888</v>
+        <v>1893</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1472,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>3160</v>
+        <v>3138</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1481,73 +1624,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>5048</v>
+        <v>5030</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7">
-        <v>17747</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>768</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7">
-        <v>19070</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>769</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>58</v>
-      </c>
-      <c r="N5" s="7">
-        <v>36817</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,153 +1699,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>19635</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>22230</v>
+        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>41865</v>
+        <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>104</v>
+      </c>
+      <c r="D7" s="7">
+        <v>67975</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>108</v>
+      </c>
+      <c r="I7" s="7">
+        <v>70788</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7">
-        <v>21159</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>212</v>
+      </c>
+      <c r="N7" s="7">
+        <v>138763</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>28</v>
-      </c>
-      <c r="I7" s="7">
-        <v>20187</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>60</v>
-      </c>
-      <c r="N7" s="7">
-        <v>41345</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>90557</v>
+        <v>12443</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7">
+        <v>13547</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>38</v>
+      </c>
+      <c r="N8" s="7">
+        <v>25990</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>129</v>
-      </c>
-      <c r="I8" s="7">
-        <v>85883</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>267</v>
-      </c>
-      <c r="N8" s="7">
-        <v>176441</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,153 +1854,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D9" s="7">
-        <v>111716</v>
+        <v>80418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7">
-        <v>106070</v>
+        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>217786</v>
+        <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D10" s="7">
-        <v>80464</v>
+        <v>84978</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>104</v>
+      </c>
+      <c r="I10" s="7">
+        <v>69875</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>232</v>
+      </c>
+      <c r="N10" s="7">
+        <v>154853</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>140</v>
-      </c>
-      <c r="I10" s="7">
-        <v>95366</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>260</v>
-      </c>
-      <c r="N10" s="7">
-        <v>175830</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>149916</v>
+        <v>20741</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>44</v>
+      </c>
+      <c r="I11" s="7">
+        <v>29318</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>74</v>
+      </c>
+      <c r="N11" s="7">
+        <v>50059</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>190</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127264</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>414</v>
-      </c>
-      <c r="N11" s="7">
-        <v>277180</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,54 +2009,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="D12" s="7">
-        <v>230380</v>
+        <v>105719</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="I12" s="7">
-        <v>222630</v>
+        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>453010</v>
+        <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1922,97 +2065,97 @@
         <v>155</v>
       </c>
       <c r="D13" s="7">
-        <v>103511</v>
+        <v>103374</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
+        <v>132</v>
+      </c>
+      <c r="I13" s="7">
+        <v>88418</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>287</v>
+      </c>
+      <c r="N13" s="7">
+        <v>191791</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>173</v>
-      </c>
-      <c r="I13" s="7">
-        <v>118712</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>328</v>
-      </c>
-      <c r="N13" s="7">
-        <v>222224</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>390</v>
+        <v>106</v>
       </c>
       <c r="D14" s="7">
-        <v>258220</v>
+        <v>70327</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="7">
+        <v>109</v>
+      </c>
+      <c r="I14" s="7">
+        <v>75079</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>215</v>
+      </c>
+      <c r="N14" s="7">
+        <v>145406</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>349</v>
-      </c>
-      <c r="I14" s="7">
-        <v>232218</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>739</v>
-      </c>
-      <c r="N14" s="7">
-        <v>490437</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,55 +2164,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>261</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173701</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>502</v>
+      </c>
+      <c r="N15" s="7">
+        <v>337197</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>390</v>
+      </c>
+      <c r="D16" s="7">
+        <v>258220</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="7">
+        <v>349</v>
+      </c>
+      <c r="I16" s="7">
+        <v>232218</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="7">
+        <v>739</v>
+      </c>
+      <c r="N16" s="7">
+        <v>490437</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>155</v>
+      </c>
+      <c r="D17" s="7">
+        <v>103511</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
+        <v>173</v>
+      </c>
+      <c r="I17" s="7">
+        <v>118712</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="7">
+        <v>328</v>
+      </c>
+      <c r="N17" s="7">
+        <v>222224</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>522</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>350930</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>1067</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>712661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2082,8 +2386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F638DF-6783-44FA-8ECB-68641B66F7AB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F3AE3F-4F45-4DF4-8FE9-C01EFBEDB9BD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2099,7 +2403,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2200,100 +2504,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>669</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
-        <v>2345</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
       <c r="I4" s="7">
-        <v>3336</v>
+        <v>2049</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>5681</v>
+        <v>2718</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11362</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1249</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="7">
-        <v>12357</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>23718</v>
+        <v>1249</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,153 +2606,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>13707</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>15693</v>
+        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>29399</v>
+        <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7">
-        <v>28101</v>
+        <v>75349</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I7" s="7">
-        <v>33791</v>
+        <v>62049</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="N7" s="7">
-        <v>61893</v>
+        <v>137398</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>105193</v>
+        <v>17330</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7">
+        <v>16933</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="7">
+        <v>48</v>
+      </c>
+      <c r="N8" s="7">
+        <v>34263</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="7">
-        <v>92629</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M8" s="7">
-        <v>271</v>
-      </c>
-      <c r="N8" s="7">
-        <v>197821</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,153 +2761,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="D9" s="7">
-        <v>133294</v>
+        <v>92679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="I9" s="7">
-        <v>126420</v>
+        <v>78982</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>359</v>
+        <v>237</v>
       </c>
       <c r="N9" s="7">
-        <v>259714</v>
+        <v>171661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="D10" s="7">
-        <v>57818</v>
+        <v>96269</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="I10" s="7">
-        <v>62102</v>
+        <v>94226</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="N10" s="7">
-        <v>119920</v>
+        <v>190495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7">
-        <v>162578</v>
+        <v>35817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>151807</v>
+        <v>31596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>314385</v>
+        <v>67413</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,153 +2916,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7">
-        <v>220396</v>
+        <v>132086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="I12" s="7">
-        <v>213909</v>
+        <v>125822</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>631</v>
+        <v>369</v>
       </c>
       <c r="N12" s="7">
-        <v>434305</v>
+        <v>257908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D13" s="7">
-        <v>88265</v>
+        <v>106845</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I13" s="7">
-        <v>99229</v>
+        <v>98469</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="N13" s="7">
-        <v>187494</v>
+        <v>205313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>397</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>279132</v>
+        <v>35118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
-        <v>363</v>
+        <v>72</v>
       </c>
       <c r="I14" s="7">
-        <v>256792</v>
+        <v>49451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
-        <v>760</v>
+        <v>125</v>
       </c>
       <c r="N14" s="7">
-        <v>535924</v>
+        <v>84569</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,55 +3071,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>210</v>
+      </c>
+      <c r="D15" s="7">
+        <v>141963</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>211</v>
+      </c>
+      <c r="I15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>421</v>
+      </c>
+      <c r="N15" s="7">
+        <v>289882</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>397</v>
+      </c>
+      <c r="D16" s="7">
+        <v>279132</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="7">
+        <v>363</v>
+      </c>
+      <c r="I16" s="7">
+        <v>256792</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" s="7">
+        <v>760</v>
+      </c>
+      <c r="N16" s="7">
+        <v>535924</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>129</v>
+      </c>
+      <c r="D17" s="7">
+        <v>88265</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="7">
+        <v>144</v>
+      </c>
+      <c r="I17" s="7">
+        <v>99229</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="7">
+        <v>273</v>
+      </c>
+      <c r="N17" s="7">
+        <v>187494</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>526</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>367397</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>507</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>356021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>1033</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>723418</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2828,8 +3293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A2BC5-BCE2-4EA0-89A6-9DFB1C002DA2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AEA37F-1059-4363-AAFC-03E04DE9BDB9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2845,7 +3310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2946,100 +3411,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1284</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>536</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
-        <v>1945</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1834</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
       <c r="N4" s="7">
-        <v>3779</v>
+        <v>1819</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
-        <v>8431</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>8797</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>17229</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,153 +3513,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>10376</v>
+        <v>1284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>10631</v>
+        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>21008</v>
+        <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D7" s="7">
-        <v>27876</v>
+        <v>66185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="7">
+        <v>85</v>
+      </c>
+      <c r="I7" s="7">
+        <v>55310</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="7">
         <v>181</v>
       </c>
-      <c r="H7" s="7">
-        <v>53</v>
-      </c>
-      <c r="I7" s="7">
-        <v>35298</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M7" s="7">
-        <v>93</v>
-      </c>
       <c r="N7" s="7">
-        <v>63175</v>
+        <v>121495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>16577</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="7">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
-        <v>153</v>
-      </c>
-      <c r="D8" s="7">
-        <v>107036</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="7">
-        <v>144</v>
-      </c>
       <c r="I8" s="7">
-        <v>95230</v>
+        <v>13474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>202265</v>
+        <v>30051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,153 +3668,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="D9" s="7">
-        <v>134912</v>
+        <v>82762</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="I9" s="7">
-        <v>130528</v>
+        <v>68784</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>390</v>
+        <v>224</v>
       </c>
       <c r="N9" s="7">
-        <v>265440</v>
+        <v>151546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D10" s="7">
-        <v>59607</v>
+        <v>119023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="I10" s="7">
-        <v>59324</v>
+        <v>111270</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="N10" s="7">
-        <v>118932</v>
+        <v>230293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>166507</v>
+        <v>31564</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>164540</v>
+        <v>38550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
-        <v>450</v>
+        <v>103</v>
       </c>
       <c r="N11" s="7">
-        <v>331046</v>
+        <v>70114</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,54 +3823,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="D12" s="7">
-        <v>226114</v>
+        <v>150587</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="I12" s="7">
-        <v>223864</v>
+        <v>149820</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>622</v>
+        <v>424</v>
       </c>
       <c r="N12" s="7">
-        <v>449978</v>
+        <v>300407</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3414,97 +3879,97 @@
         <v>127</v>
       </c>
       <c r="D13" s="7">
-        <v>89428</v>
+        <v>95481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I13" s="7">
-        <v>96456</v>
+        <v>101452</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N13" s="7">
-        <v>185884</v>
+        <v>196933</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>388</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>281974</v>
+        <v>41288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
-        <v>386</v>
+        <v>67</v>
       </c>
       <c r="I14" s="7">
-        <v>268568</v>
+        <v>44431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
-        <v>774</v>
+        <v>125</v>
       </c>
       <c r="N14" s="7">
-        <v>550541</v>
+        <v>85719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,55 +3978,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>185</v>
+      </c>
+      <c r="D15" s="7">
+        <v>136769</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>209</v>
+      </c>
+      <c r="I15" s="7">
+        <v>145883</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>394</v>
+      </c>
+      <c r="N15" s="7">
+        <v>282652</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>388</v>
+      </c>
+      <c r="D16" s="7">
+        <v>281974</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="7">
+        <v>386</v>
+      </c>
+      <c r="I16" s="7">
+        <v>268568</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M16" s="7">
+        <v>774</v>
+      </c>
+      <c r="N16" s="7">
+        <v>550541</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>127</v>
+      </c>
+      <c r="D17" s="7">
+        <v>89428</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="7">
+        <v>144</v>
+      </c>
+      <c r="I17" s="7">
+        <v>96456</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M17" s="7">
+        <v>271</v>
+      </c>
+      <c r="N17" s="7">
+        <v>185884</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>515</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>371402</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>530</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>365024</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>1045</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>736425</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3574,8 +4200,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0C06B9-3523-4911-9A56-427FC3A3565E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B5F011-0047-4A4F-A5D7-1EE49407284B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3591,7 +4217,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3695,97 +4321,97 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>3424</v>
+        <v>4010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>2926</v>
+        <v>4315</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>6350</v>
+        <v>8326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>18021</v>
+        <v>1274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>13225</v>
+        <v>1602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>31246</v>
+        <v>2875</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,153 +4420,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>21445</v>
+        <v>5284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>16151</v>
+        <v>5917</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>37596</v>
+        <v>11201</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7">
-        <v>22081</v>
+        <v>62277</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="I7" s="7">
-        <v>21259</v>
+        <v>56031</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="N7" s="7">
-        <v>43340</v>
+        <v>118308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>101639</v>
+        <v>11105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="H8" s="7">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>90273</v>
+        <v>11039</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="N8" s="7">
-        <v>191912</v>
+        <v>22144</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,153 +4575,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>123720</v>
+        <v>73382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>111532</v>
+        <v>67070</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>235252</v>
+        <v>140452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="D10" s="7">
-        <v>55657</v>
+        <v>129608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="I10" s="7">
-        <v>47882</v>
+        <v>102725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
-        <v>126</v>
+        <v>290</v>
       </c>
       <c r="N10" s="7">
-        <v>103539</v>
+        <v>232333</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>312</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>263980</v>
+        <v>27599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="H11" s="7">
-        <v>307</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>224459</v>
+        <v>21399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
-        <v>619</v>
+        <v>59</v>
       </c>
       <c r="N11" s="7">
-        <v>488439</v>
+        <v>48998</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,153 +4730,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>319637</v>
+        <v>157207</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>272341</v>
+        <v>124124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>745</v>
+        <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>591978</v>
+        <v>281331</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="D13" s="7">
-        <v>81163</v>
+        <v>187746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>72067</v>
+        <v>164885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
-        <v>191</v>
+        <v>450</v>
       </c>
       <c r="N13" s="7">
-        <v>153229</v>
+        <v>352631</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>473</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>383640</v>
+        <v>41185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="H14" s="7">
-        <v>460</v>
+        <v>48</v>
       </c>
       <c r="I14" s="7">
-        <v>327957</v>
+        <v>38027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
-        <v>933</v>
+        <v>95</v>
       </c>
       <c r="N14" s="7">
-        <v>711597</v>
+        <v>79212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,55 +4885,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>268</v>
+      </c>
+      <c r="D15" s="7">
+        <v>228931</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>277</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202912</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>545</v>
+      </c>
+      <c r="N15" s="7">
+        <v>431843</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>473</v>
+      </c>
+      <c r="D16" s="7">
+        <v>383640</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H16" s="7">
+        <v>460</v>
+      </c>
+      <c r="I16" s="7">
+        <v>327957</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M16" s="7">
+        <v>933</v>
+      </c>
+      <c r="N16" s="7">
+        <v>711597</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>97</v>
+      </c>
+      <c r="D17" s="7">
+        <v>81163</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H17" s="7">
+        <v>94</v>
+      </c>
+      <c r="I17" s="7">
+        <v>72067</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M17" s="7">
+        <v>191</v>
+      </c>
+      <c r="N17" s="7">
+        <v>153229</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>464803</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>554</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>400024</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>1124</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>864826</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15864679-207D-4566-B4CB-CD5D09D96EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0322DE-EC84-4245-AAC5-D0857F6C9DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{907FE6C9-57B5-4A4E-8903-86C8B37A80D8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{959255C2-B426-4C69-A8CD-0CED7905C874}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -86,13 +86,13 @@
     <t>80,33%</t>
   </si>
   <si>
-    <t>22,65%</t>
+    <t>27,99%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>48,41%</t>
+    <t>48,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,13 +110,13 @@
     <t>19,67%</t>
   </si>
   <si>
-    <t>77,35%</t>
+    <t>72,01%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>51,59%</t>
+    <t>51,97%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -125,55 +125,55 @@
     <t>84,53%</t>
   </si>
   <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -182,55 +182,55 @@
     <t>80,38%</t>
   </si>
   <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>75,57%</t>
   </si>
   <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>29,56%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -239,109 +239,109 @@
     <t>59,51%</t>
   </si>
   <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
   </si>
   <si>
     <t>56,88%</t>
   </si>
   <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
   </si>
   <si>
     <t>43,12%</t>
   </si>
   <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>66,17%</t>
   </si>
   <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
   </si>
   <si>
     <t>68,82%</t>
   </si>
   <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>31,18%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -362,7 +362,7 @@
     <t>68,52%</t>
   </si>
   <si>
-    <t>17,63%</t>
+    <t>17,67%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -377,220 +377,226 @@
     <t>31,48%</t>
   </si>
   <si>
-    <t>82,37%</t>
+    <t>82,33%</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>74,89%</t>
   </si>
   <si>
-    <t>67,97%</t>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>32,03%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>75,26%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>66,57%</t>
   </si>
   <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>24,74%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>74,08%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>25,92%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2015 (Tasa respuesta: 49,15%)</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2016 (Tasa respuesta: 49,15%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -602,472 +608,466 @@
     <t>79,97%</t>
   </si>
   <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>80,41%</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>80,17%</t>
   </si>
   <si>
-    <t>73,66%</t>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>84,87%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>82,58%</t>
   </si>
   <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>82,01%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>17,99%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
   </si>
   <si>
     <t>82,28%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F3EDB8-E3CD-4322-BA83-452E94CC2A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7617DBE4-63FB-4044-AA08-8E6DCBD1B4DE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2386,7 +2386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F3AE3F-4F45-4DF4-8FE9-C01EFBEDB9BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17733B41-3D93-4D96-8278-BAD1A565C504}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2841,7 @@
         <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>271</v>
@@ -2850,13 +2850,13 @@
         <v>190495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2871,13 @@
         <v>35817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -2886,13 +2886,13 @@
         <v>31596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -2901,13 +2901,13 @@
         <v>67413</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2975,13 @@
         <v>106845</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -2990,13 +2990,13 @@
         <v>98469</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
         <v>296</v>
@@ -3005,13 +3005,13 @@
         <v>205313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3026,13 @@
         <v>35118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>72</v>
@@ -3041,13 +3041,13 @@
         <v>49451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>125</v>
@@ -3056,13 +3056,13 @@
         <v>84569</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3130,13 @@
         <v>279132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>363</v>
@@ -3145,13 +3145,13 @@
         <v>256792</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>760</v>
@@ -3160,13 +3160,13 @@
         <v>535924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3181,13 @@
         <v>88265</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -3196,13 +3196,13 @@
         <v>99229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>273</v>
@@ -3211,13 +3211,13 @@
         <v>187494</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AEA37F-1059-4363-AAFC-03E04DE9BDB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A261E4E-9EF5-4DD0-A713-BCF23738C9FB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3310,7 +3310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3420,7 +3420,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3474,7 +3474,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3572,13 +3572,13 @@
         <v>66185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>85</v>
@@ -3587,13 +3587,13 @@
         <v>55310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -3602,13 +3602,13 @@
         <v>121495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3623,13 @@
         <v>16577</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -3638,13 +3638,13 @@
         <v>13474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -3653,13 +3653,13 @@
         <v>30051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3727,13 @@
         <v>119023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -3742,13 +3742,13 @@
         <v>111270</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>321</v>
@@ -3757,13 +3757,13 @@
         <v>230293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3778,13 @@
         <v>31564</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -3793,13 +3793,13 @@
         <v>38550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -3808,13 +3808,13 @@
         <v>70114</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3882,13 @@
         <v>95481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -3897,13 +3897,13 @@
         <v>101452</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>269</v>
@@ -3912,13 +3912,13 @@
         <v>196933</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3933,13 @@
         <v>41288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -3948,13 +3948,13 @@
         <v>44431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>125</v>
@@ -3963,13 +3963,13 @@
         <v>85719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4037,13 @@
         <v>281974</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>386</v>
@@ -4052,13 +4052,13 @@
         <v>268568</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>774</v>
@@ -4067,10 +4067,10 @@
         <v>550541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>248</v>
@@ -4118,13 +4118,13 @@
         <v>185884</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,7 +4200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B5F011-0047-4A4F-A5D7-1EE49407284B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE376826-F095-469C-9632-81FB6129395E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4217,7 +4217,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4324,10 +4324,10 @@
         <v>4010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4339,10 +4339,10 @@
         <v>4315</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -4354,13 +4354,13 @@
         <v>8326</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4375,13 @@
         <v>1274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4390,13 +4390,13 @@
         <v>1602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4405,13 +4405,13 @@
         <v>2875</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4479,13 @@
         <v>62277</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
@@ -4494,13 +4494,13 @@
         <v>56031</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -4509,13 +4509,13 @@
         <v>118308</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,7 +4530,7 @@
         <v>11105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>281</v>

--- a/data/trans_orig/IP19C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0322DE-EC84-4245-AAC5-D0857F6C9DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45FB4339-7578-47B2-AB89-4129C42F3624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{959255C2-B426-4C69-A8CD-0CED7905C874}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{3552B43A-2BC1-4DDD-BB8F-5C8EA9B613EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según su última visita al dentista fue por revisión o chequeo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,6 +74,12 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -83,991 +89,985 @@
     <t>100%</t>
   </si>
   <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>48,03%</t>
+    <t>41,19%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>19,67%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>77,02%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>51,97%</t>
+    <t>58,81%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
     <t>80,38%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>75,57%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>53,0%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2016 (Tasa respuesta: 49,15%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2016 (Tasa respuesta: 49,15%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>75,02%</t>
   </si>
   <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7617DBE4-63FB-4044-AA08-8E6DCBD1B4DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028AFFA7-8463-4F55-9855-F81E1CBED453}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,10 +1597,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>1893</v>
+        <v>3138</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1612,19 +1612,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>3138</v>
+        <v>1893</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -1639,7 +1639,7 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,10 +1648,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1663,16 +1663,16 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -1687,7 +1687,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>25</v>
@@ -1699,34 +1699,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3906</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1893</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3906</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -1735,13 +1735,13 @@
         <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,10 +1752,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D7" s="7">
-        <v>67975</v>
+        <v>70788</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1767,10 +1767,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I7" s="7">
-        <v>70788</v>
+        <v>67975</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1806,7 +1806,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>12443</v>
+        <v>13547</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1821,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>13547</v>
+        <v>12443</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1854,34 +1854,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>84335</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
         <v>123</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>80418</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
-      <c r="I9" s="7">
-        <v>84335</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>250</v>
@@ -1890,13 +1890,13 @@
         <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,10 +1907,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7">
-        <v>84978</v>
+        <v>69875</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1922,10 +1922,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="I10" s="7">
-        <v>69875</v>
+        <v>84978</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1958,10 +1958,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>20741</v>
+        <v>29318</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1973,10 +1973,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>29318</v>
+        <v>20741</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -2009,34 +2009,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7">
+        <v>99193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>105719</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>148</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99193</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>306</v>
@@ -2045,13 +2045,13 @@
         <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,10 +2062,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7">
-        <v>103374</v>
+        <v>88418</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -2077,10 +2077,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="I13" s="7">
-        <v>88418</v>
+        <v>103374</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -2113,10 +2113,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14" s="7">
-        <v>70327</v>
+        <v>75079</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -2128,10 +2128,10 @@
         <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I14" s="7">
-        <v>75079</v>
+        <v>70327</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -2164,34 +2164,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>261</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173701</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>163497</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>502</v>
@@ -2200,13 +2200,13 @@
         <v>337197</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,10 +2217,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="D16" s="7">
-        <v>258220</v>
+        <v>232218</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>83</v>
@@ -2232,10 +2232,10 @@
         <v>85</v>
       </c>
       <c r="H16" s="7">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="I16" s="7">
-        <v>232218</v>
+        <v>258220</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>86</v>
@@ -2268,10 +2268,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D17" s="7">
-        <v>103511</v>
+        <v>118712</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>92</v>
@@ -2283,10 +2283,10 @@
         <v>94</v>
       </c>
       <c r="H17" s="7">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I17" s="7">
-        <v>118712</v>
+        <v>103511</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>95</v>
@@ -2319,34 +2319,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>522</v>
+      </c>
+      <c r="D18" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7">
         <v>545</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>361731</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>522</v>
-      </c>
-      <c r="I18" s="7">
-        <v>350930</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>1067</v>
@@ -2355,13 +2355,13 @@
         <v>712661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,7 +2386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17733B41-3D93-4D96-8278-BAD1A565C504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CAE052-82A1-46B4-92B0-31896C392B07}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2504,34 +2504,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>669</v>
+        <v>2049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2049</v>
+        <v>669</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2546,7 +2546,7 @@
         <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,31 +2555,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1249</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1249</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>110</v>
@@ -2594,7 +2594,7 @@
         <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>112</v>
@@ -2606,34 +2606,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>669</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3298</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -2642,13 +2642,13 @@
         <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,10 +2659,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7">
-        <v>75349</v>
+        <v>62049</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>113</v>
@@ -2674,10 +2674,10 @@
         <v>115</v>
       </c>
       <c r="H7" s="7">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I7" s="7">
-        <v>62049</v>
+        <v>75349</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>116</v>
@@ -2713,7 +2713,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>17330</v>
+        <v>16933</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>122</v>
@@ -2728,7 +2728,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>16933</v>
+        <v>17330</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>125</v>
@@ -2761,34 +2761,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>112</v>
+      </c>
+      <c r="D9" s="7">
+        <v>78982</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
         <v>125</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>92679</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>112</v>
-      </c>
-      <c r="I9" s="7">
-        <v>78982</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>237</v>
@@ -2797,13 +2797,13 @@
         <v>171661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,10 +2814,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D10" s="7">
-        <v>96269</v>
+        <v>94226</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>131</v>
@@ -2829,10 +2829,10 @@
         <v>133</v>
       </c>
       <c r="H10" s="7">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I10" s="7">
-        <v>94226</v>
+        <v>96269</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>134</v>
@@ -2865,10 +2865,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>35817</v>
+        <v>31596</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>140</v>
@@ -2880,10 +2880,10 @@
         <v>142</v>
       </c>
       <c r="H11" s="7">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>31596</v>
+        <v>35817</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>143</v>
@@ -2916,34 +2916,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>179</v>
+      </c>
+      <c r="D12" s="7">
+        <v>125822</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
         <v>190</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132086</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>179</v>
-      </c>
-      <c r="I12" s="7">
-        <v>125822</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>369</v>
@@ -2952,13 +2952,13 @@
         <v>257908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,10 +2969,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D13" s="7">
-        <v>106845</v>
+        <v>98469</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>149</v>
@@ -2984,10 +2984,10 @@
         <v>151</v>
       </c>
       <c r="H13" s="7">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="I13" s="7">
-        <v>98469</v>
+        <v>106845</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>152</v>
@@ -3020,10 +3020,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7">
-        <v>35118</v>
+        <v>49451</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>158</v>
@@ -3035,10 +3035,10 @@
         <v>160</v>
       </c>
       <c r="H14" s="7">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>49451</v>
+        <v>35118</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>161</v>
@@ -3071,34 +3071,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>210</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141963</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>211</v>
-      </c>
-      <c r="I15" s="7">
-        <v>147920</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>421</v>
@@ -3107,13 +3107,13 @@
         <v>289882</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,10 +3124,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="D16" s="7">
-        <v>279132</v>
+        <v>256792</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>167</v>
@@ -3139,10 +3139,10 @@
         <v>169</v>
       </c>
       <c r="H16" s="7">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="I16" s="7">
-        <v>256792</v>
+        <v>279132</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>170</v>
@@ -3175,10 +3175,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D17" s="7">
-        <v>88265</v>
+        <v>99229</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>176</v>
@@ -3190,10 +3190,10 @@
         <v>178</v>
       </c>
       <c r="H17" s="7">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I17" s="7">
-        <v>99229</v>
+        <v>88265</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>179</v>
@@ -3226,34 +3226,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>507</v>
+      </c>
+      <c r="D18" s="7">
+        <v>356021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7">
         <v>526</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>367397</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>507</v>
-      </c>
-      <c r="I18" s="7">
-        <v>356021</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>1033</v>
@@ -3262,13 +3262,13 @@
         <v>723418</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A261E4E-9EF5-4DD0-A713-BCF23738C9FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FCA0CC-02BC-4441-B6E9-57C704770E94}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3411,34 +3411,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>536</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1284</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>536</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3447,13 +3447,13 @@
         <v>1819</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3498,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,34 +3513,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>536</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1284</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>536</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3549,13 +3549,13 @@
         <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,10 +3566,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D7" s="7">
-        <v>66185</v>
+        <v>55310</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>188</v>
@@ -3581,19 +3581,19 @@
         <v>190</v>
       </c>
       <c r="H7" s="7">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I7" s="7">
-        <v>55310</v>
+        <v>66185</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -3602,13 +3602,13 @@
         <v>121495</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,34 +3617,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7">
+        <v>13474</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="7">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>16577</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H8" s="7">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7">
-        <v>13474</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -3653,13 +3653,13 @@
         <v>30051</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,34 +3668,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>105</v>
+      </c>
+      <c r="D9" s="7">
+        <v>68784</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
         <v>119</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>82762</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>105</v>
-      </c>
-      <c r="I9" s="7">
-        <v>68784</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>224</v>
@@ -3704,13 +3704,13 @@
         <v>151546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,34 +3721,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>158</v>
+      </c>
+      <c r="D10" s="7">
+        <v>111270</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="7">
         <v>163</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>119023</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H10" s="7">
-        <v>158</v>
-      </c>
-      <c r="I10" s="7">
-        <v>111270</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>321</v>
@@ -3757,13 +3757,13 @@
         <v>230293</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,34 +3772,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7">
+        <v>38550</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="7">
         <v>46</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>31564</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="7">
-        <v>57</v>
-      </c>
-      <c r="I11" s="7">
-        <v>38550</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -3808,13 +3808,13 @@
         <v>70114</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,34 +3823,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>215</v>
+      </c>
+      <c r="D12" s="7">
+        <v>149820</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
         <v>209</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>150587</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>215</v>
-      </c>
-      <c r="I12" s="7">
-        <v>149820</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>424</v>
@@ -3859,13 +3859,13 @@
         <v>300407</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,34 +3876,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>142</v>
+      </c>
+      <c r="D13" s="7">
+        <v>101452</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="7">
         <v>127</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>95481</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H13" s="7">
-        <v>142</v>
-      </c>
-      <c r="I13" s="7">
-        <v>101452</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>269</v>
@@ -3912,13 +3912,13 @@
         <v>196933</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,34 +3927,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44431</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="7">
         <v>58</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>41288</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" s="7">
-        <v>67</v>
-      </c>
-      <c r="I14" s="7">
-        <v>44431</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>125</v>
@@ -3963,13 +3963,13 @@
         <v>85719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,34 +3978,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>209</v>
+      </c>
+      <c r="D15" s="7">
+        <v>145883</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>185</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>136769</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>209</v>
-      </c>
-      <c r="I15" s="7">
-        <v>145883</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>394</v>
@@ -4014,13 +4014,13 @@
         <v>282652</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,34 +4031,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>386</v>
+      </c>
+      <c r="D16" s="7">
+        <v>268568</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16" s="7">
         <v>388</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>281974</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H16" s="7">
-        <v>386</v>
-      </c>
-      <c r="I16" s="7">
-        <v>268568</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>774</v>
@@ -4067,13 +4067,13 @@
         <v>550541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,34 +4082,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>144</v>
+      </c>
+      <c r="D17" s="7">
+        <v>96456</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="7">
         <v>127</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>89428</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="7">
-        <v>144</v>
-      </c>
-      <c r="I17" s="7">
-        <v>96456</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>271</v>
@@ -4118,13 +4118,13 @@
         <v>185884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,34 +4133,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>530</v>
+      </c>
+      <c r="D18" s="7">
+        <v>365024</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7">
         <v>515</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>371402</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>530</v>
-      </c>
-      <c r="I18" s="7">
-        <v>365024</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>1045</v>
@@ -4169,13 +4169,13 @@
         <v>736425</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,7 +4200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE376826-F095-469C-9632-81FB6129395E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1495713B-169C-4DFF-A6F3-1F674F3E1AA8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4318,10 +4318,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>4010</v>
+        <v>4171</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>257</v>
@@ -4330,13 +4330,13 @@
         <v>258</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>4315</v>
+        <v>3988</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>259</v>
@@ -4345,13 +4345,13 @@
         <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>8326</v>
+        <v>8159</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>261</v>
@@ -4372,13 +4372,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1274</v>
+        <v>1626</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>265</v>
@@ -4387,13 +4387,13 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>1602</v>
+        <v>1328</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>267</v>
@@ -4402,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>2875</v>
+        <v>2954</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>268</v>
@@ -4420,49 +4420,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
       <c r="I6" s="7">
-        <v>5917</v>
+        <v>5316</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>11201</v>
+        <v>11113</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,10 +4473,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D7" s="7">
-        <v>62277</v>
+        <v>55323</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>271</v>
@@ -4488,10 +4488,10 @@
         <v>273</v>
       </c>
       <c r="H7" s="7">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I7" s="7">
-        <v>56031</v>
+        <v>65166</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>274</v>
@@ -4506,7 +4506,7 @@
         <v>178</v>
       </c>
       <c r="N7" s="7">
-        <v>118308</v>
+        <v>120489</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>277</v>
@@ -4524,10 +4524,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>11105</v>
+        <v>10873</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>280</v>
@@ -4539,10 +4539,10 @@
         <v>282</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>11039</v>
+        <v>11965</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>283</v>
@@ -4557,7 +4557,7 @@
         <v>33</v>
       </c>
       <c r="N8" s="7">
-        <v>22144</v>
+        <v>22838</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>286</v>
@@ -4575,49 +4575,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7">
+        <v>66196</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
         <v>108</v>
       </c>
-      <c r="D9" s="7">
-        <v>73382</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>103</v>
-      </c>
       <c r="I9" s="7">
-        <v>67070</v>
+        <v>77131</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>140452</v>
+        <v>143327</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,10 +4628,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D10" s="7">
-        <v>129608</v>
+        <v>99990</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>289</v>
@@ -4643,10 +4643,10 @@
         <v>291</v>
       </c>
       <c r="H10" s="7">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I10" s="7">
-        <v>102725</v>
+        <v>135743</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>292</v>
@@ -4661,7 +4661,7 @@
         <v>290</v>
       </c>
       <c r="N10" s="7">
-        <v>232333</v>
+        <v>235733</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>295</v>
@@ -4679,10 +4679,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>27599</v>
+        <v>21913</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>298</v>
@@ -4694,10 +4694,10 @@
         <v>300</v>
       </c>
       <c r="H11" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>21399</v>
+        <v>29045</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>301</v>
@@ -4712,7 +4712,7 @@
         <v>59</v>
       </c>
       <c r="N11" s="7">
-        <v>48998</v>
+        <v>50958</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>304</v>
@@ -4730,49 +4730,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>163</v>
+      </c>
+      <c r="D12" s="7">
+        <v>121903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
         <v>186</v>
       </c>
-      <c r="D12" s="7">
-        <v>157207</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>163</v>
-      </c>
       <c r="I12" s="7">
-        <v>124124</v>
+        <v>164788</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>281331</v>
+        <v>286691</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,10 +4783,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D13" s="7">
-        <v>187746</v>
+        <v>160382</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>307</v>
@@ -4798,10 +4798,10 @@
         <v>309</v>
       </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I13" s="7">
-        <v>164885</v>
+        <v>194374</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>310</v>
@@ -4816,7 +4816,7 @@
         <v>450</v>
       </c>
       <c r="N13" s="7">
-        <v>352631</v>
+        <v>354756</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>313</v>
@@ -4834,10 +4834,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>41185</v>
+        <v>37355</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>316</v>
@@ -4849,10 +4849,10 @@
         <v>318</v>
       </c>
       <c r="H14" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="7">
-        <v>38027</v>
+        <v>42834</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>319</v>
@@ -4867,7 +4867,7 @@
         <v>95</v>
       </c>
       <c r="N14" s="7">
-        <v>79212</v>
+        <v>80189</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>322</v>
@@ -4885,49 +4885,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>277</v>
+      </c>
+      <c r="D15" s="7">
+        <v>197737</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>268</v>
       </c>
-      <c r="D15" s="7">
-        <v>228931</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>277</v>
-      </c>
       <c r="I15" s="7">
-        <v>202912</v>
+        <v>237208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>545</v>
       </c>
       <c r="N15" s="7">
-        <v>431843</v>
+        <v>434945</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,10 +4938,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D16" s="7">
-        <v>383640</v>
+        <v>319866</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>325</v>
@@ -4953,10 +4953,10 @@
         <v>327</v>
       </c>
       <c r="H16" s="7">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="I16" s="7">
-        <v>327957</v>
+        <v>399272</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>328</v>
@@ -4971,7 +4971,7 @@
         <v>933</v>
       </c>
       <c r="N16" s="7">
-        <v>711597</v>
+        <v>719137</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>331</v>
@@ -4989,10 +4989,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" s="7">
-        <v>81163</v>
+        <v>71767</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>334</v>
@@ -5004,10 +5004,10 @@
         <v>336</v>
       </c>
       <c r="H17" s="7">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I17" s="7">
-        <v>72067</v>
+        <v>85172</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>337</v>
@@ -5022,7 +5022,7 @@
         <v>191</v>
       </c>
       <c r="N17" s="7">
-        <v>153229</v>
+        <v>156939</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>340</v>
@@ -5040,49 +5040,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>554</v>
+      </c>
+      <c r="D18" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7">
         <v>570</v>
       </c>
-      <c r="D18" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>554</v>
-      </c>
       <c r="I18" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
